--- a/Assets/PCM_Excel.xlsx
+++ b/Assets/PCM_Excel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="611">
   <si>
     <t>testUseCase</t>
   </si>
@@ -1041,9 +1041,6 @@
     </r>
   </si>
   <si>
-    <t>Table 1</t>
-  </si>
-  <si>
     <t>ManageStorefrontResultGetAPIStatusCode</t>
   </si>
   <si>
@@ -1237,6 +1234,9 @@
   </si>
   <si>
     <t>&lt;span style="background-color:palegreen;"&gt;SubstitutionNote','AUTOMATION: Auto Refill System has substituted &lt;&lt;thisMed&gt;&gt; (equivalent for &lt;&lt;SubstitutionMed&gt;&gt;) and updated the associated prescription record. Prescribers are aware of this change and allow substitution to provide continuation of patient care as seamlessly as possible.&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>user_type</t>
   </si>
   <si>
     <t>username</t>
@@ -1304,6 +1304,20 @@
     <t>Wrongpassword</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="18"/>
+        <rFont val="Trebuchet MS"/>
+      </rPr>
+      <t>wrong@upscript.com</t>
+    </r>
+  </si>
+  <si>
     <t>StorefrontDisplayName</t>
   </si>
   <si>
@@ -1884,6 +1898,9 @@
   </si>
   <si>
     <t>test_product39</t>
+  </si>
+  <si>
+    <t>Table 1</t>
   </si>
   <si>
     <t>code1</t>
@@ -2126,7 +2143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -2561,56 +2578,6 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
@@ -2641,6 +2608,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="13"/>
@@ -2650,21 +2654,6 @@
       </top>
       <bottom style="thin">
         <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2713,13 +2702,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2984,39 +3010,36 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3059,13 +3082,13 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -3089,89 +3112,83 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4431,84 +4448,84 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="116" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="116" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="115" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="115" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="s" s="58">
+        <v>356</v>
+      </c>
+      <c r="B1" t="s" s="58">
         <v>357</v>
       </c>
-      <c r="B1" t="s" s="58">
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+    </row>
+    <row r="2" ht="464.55" customHeight="1">
+      <c r="A2" s="117">
+        <v>1903</v>
+      </c>
+      <c r="B2" t="s" s="104">
         <v>358</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-    </row>
-    <row r="2" ht="464.55" customHeight="1">
-      <c r="A2" s="118">
-        <v>1903</v>
-      </c>
-      <c r="B2" t="s" s="105">
-        <v>359</v>
-      </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
     </row>
     <row r="3" ht="14.05" customHeight="1">
-      <c r="A3" s="120"/>
-      <c r="B3" s="121"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
     </row>
     <row r="4" ht="14.05" customHeight="1">
-      <c r="A4" s="120"/>
-      <c r="B4" s="121"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="120"/>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
     </row>
     <row r="5" ht="14.05" customHeight="1">
-      <c r="A5" s="120"/>
-      <c r="B5" s="121"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="120"/>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
     </row>
     <row r="6" ht="14.05" customHeight="1">
-      <c r="A6" s="120"/>
-      <c r="B6" s="121"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
     </row>
     <row r="7" ht="14.05" customHeight="1">
-      <c r="A7" s="120"/>
-      <c r="B7" s="121"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
     </row>
     <row r="8" ht="14.05" customHeight="1">
-      <c r="A8" s="120"/>
-      <c r="B8" s="121"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
     </row>
     <row r="9" ht="14.05" customHeight="1">
-      <c r="A9" s="120"/>
-      <c r="B9" s="121"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="41"/>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
     </row>
     <row r="10" ht="14.05" customHeight="1">
-      <c r="A10" s="120"/>
-      <c r="B10" s="121"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
@@ -4527,178 +4544,124 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30.6719" style="122" customWidth="1"/>
-    <col min="2" max="7" width="16.3516" style="122" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="122" customWidth="1"/>
+    <col min="1" max="1" width="30.6719" style="121" customWidth="1"/>
+    <col min="2" max="5" width="16.3516" style="121" customWidth="1"/>
+    <col min="6" max="6" width="20.1406" style="121" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="121" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.6" customHeight="1">
-      <c r="A1" t="s" s="123">
-        <v>294</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-    </row>
-    <row r="2" ht="14.35" customHeight="1">
-      <c r="A2" s="125"/>
-      <c r="B2" t="s" s="2">
+    <row r="1" ht="14.35" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B1" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C1" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D1" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E1" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F1" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="G2" s="125"/>
+    </row>
+    <row r="2" ht="14.7" customHeight="1">
+      <c r="A2" t="s" s="122">
+        <v>365</v>
+      </c>
+      <c r="B2" t="s" s="123">
+        <v>366</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>367</v>
+      </c>
+      <c r="D2" t="s" s="12">
+        <v>368</v>
+      </c>
+      <c r="E2" t="s" s="12">
+        <v>369</v>
+      </c>
+      <c r="F2" t="s" s="12">
+        <v>370</v>
+      </c>
     </row>
     <row r="3" ht="14.7" customHeight="1">
-      <c r="A3" t="s" s="126">
-        <v>365</v>
-      </c>
-      <c r="B3" t="s" s="127">
-        <v>366</v>
-      </c>
-      <c r="C3" t="s" s="5">
+      <c r="A3" t="s" s="124">
+        <v>371</v>
+      </c>
+      <c r="B3" t="s" s="125">
+        <v>372</v>
+      </c>
+      <c r="C3" t="s" s="10">
         <v>367</v>
       </c>
-      <c r="D3" t="s" s="12">
-        <v>368</v>
-      </c>
-      <c r="E3" t="s" s="12">
+      <c r="D3" t="s" s="90">
+        <v>373</v>
+      </c>
+      <c r="E3" t="s" s="90">
         <v>369</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="90">
         <v>370</v>
       </c>
-      <c r="G3" s="128"/>
     </row>
     <row r="4" ht="14.7" customHeight="1">
-      <c r="A4" t="s" s="129">
-        <v>371</v>
-      </c>
-      <c r="B4" t="s" s="130">
-        <v>372</v>
+      <c r="A4" t="s" s="124">
+        <v>374</v>
+      </c>
+      <c r="B4" t="s" s="126">
+        <v>375</v>
       </c>
       <c r="C4" t="s" s="10">
         <v>367</v>
       </c>
-      <c r="D4" t="s" s="94">
-        <v>373</v>
-      </c>
-      <c r="E4" t="s" s="94">
+      <c r="D4" t="s" s="90">
+        <v>376</v>
+      </c>
+      <c r="E4" t="s" s="90">
         <v>369</v>
       </c>
-      <c r="F4" t="s" s="94">
+      <c r="F4" t="s" s="90">
         <v>370</v>
       </c>
-      <c r="G4" s="131"/>
-    </row>
-    <row r="5" ht="14.7" customHeight="1">
-      <c r="A5" t="s" s="129">
-        <v>374</v>
-      </c>
-      <c r="B5" t="s" s="132">
-        <v>375</v>
+    </row>
+    <row r="5" ht="14.35" customHeight="1">
+      <c r="A5" t="s" s="124">
+        <v>377</v>
+      </c>
+      <c r="B5" t="s" s="123">
+        <v>366</v>
       </c>
       <c r="C5" t="s" s="10">
-        <v>367</v>
-      </c>
-      <c r="D5" t="s" s="94">
-        <v>376</v>
-      </c>
-      <c r="E5" t="s" s="94">
+        <v>378</v>
+      </c>
+      <c r="D5" t="s" s="90">
+        <v>379</v>
+      </c>
+      <c r="E5" t="s" s="90">
         <v>369</v>
       </c>
-      <c r="F5" t="s" s="94">
-        <v>370</v>
-      </c>
-      <c r="G5" s="131"/>
-    </row>
-    <row r="6" ht="14.35" customHeight="1">
-      <c r="A6" t="s" s="129">
-        <v>377</v>
-      </c>
-      <c r="B6" t="s" s="127">
-        <v>366</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>378</v>
-      </c>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-    </row>
-    <row r="7" ht="14.05" customHeight="1">
-      <c r="A7" s="133"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-    </row>
-    <row r="8" ht="14.05" customHeight="1">
-      <c r="A8" s="133"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-    </row>
-    <row r="9" ht="14.05" customHeight="1">
-      <c r="A9" s="133"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-    </row>
-    <row r="10" ht="14.05" customHeight="1">
-      <c r="A10" s="133"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-    </row>
-    <row r="11" ht="14.05" customHeight="1">
-      <c r="A11" s="133"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
+      <c r="F5" t="s" s="90">
+        <v>380</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" location="" tooltip="" display="test@upscript.com"/>
-    <hyperlink ref="F4" r:id="rId2" location="" tooltip="" display="test@upscript.com"/>
-    <hyperlink ref="F5" r:id="rId3" location="" tooltip="" display="test@upscript.com"/>
+    <hyperlink ref="F2" r:id="rId1" location="" tooltip="" display="test@upscript.com"/>
+    <hyperlink ref="F3" r:id="rId2" location="" tooltip="" display="test@upscript.com"/>
+    <hyperlink ref="F4" r:id="rId3" location="" tooltip="" display="test@upscript.com"/>
+    <hyperlink ref="F5" r:id="rId4" location="" tooltip="" display="wrong@upscript.com"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -4719,11 +4682,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.6719" style="135" customWidth="1"/>
-    <col min="2" max="11" width="16.3516" style="135" customWidth="1"/>
-    <col min="12" max="12" width="15.8516" style="135" customWidth="1"/>
-    <col min="13" max="36" width="16.3516" style="135" customWidth="1"/>
-    <col min="37" max="256" width="16.3516" style="135" customWidth="1"/>
+    <col min="1" max="1" width="24.6719" style="127" customWidth="1"/>
+    <col min="2" max="11" width="16.3516" style="127" customWidth="1"/>
+    <col min="12" max="12" width="15.8516" style="127" customWidth="1"/>
+    <col min="13" max="36" width="16.3516" style="127" customWidth="1"/>
+    <col min="37" max="256" width="16.3516" style="127" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1">
@@ -4737,117 +4700,117 @@
         <v>2</v>
       </c>
       <c r="D1" t="s" s="24">
+        <v>330</v>
+      </c>
+      <c r="E1" t="s" s="23">
         <v>331</v>
       </c>
-      <c r="E1" t="s" s="23">
+      <c r="F1" t="s" s="24">
         <v>332</v>
       </c>
-      <c r="F1" t="s" s="24">
+      <c r="G1" t="s" s="24">
         <v>333</v>
       </c>
-      <c r="G1" t="s" s="24">
+      <c r="H1" t="s" s="23">
         <v>334</v>
       </c>
-      <c r="H1" t="s" s="23">
-        <v>335</v>
-      </c>
       <c r="I1" t="s" s="23">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J1" t="s" s="23">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K1" t="s" s="23">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L1" t="s" s="23">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M1" t="s" s="23">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N1" t="s" s="23">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O1" t="s" s="23">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P1" t="s" s="23">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q1" t="s" s="23">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="R1" t="s" s="58">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="S1" t="s" s="23">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="T1" t="s" s="23">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="U1" t="s" s="23">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="V1" t="s" s="23">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="W1" t="s" s="23">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="X1" t="s" s="23">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Y1" t="s" s="24">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Z1" t="s" s="24">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AA1" t="s" s="24">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AB1" t="s" s="24">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AC1" t="s" s="24">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AD1" t="s" s="24">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AE1" t="s" s="24">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AF1" t="s" s="24">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AG1" t="s" s="24">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AH1" t="s" s="24">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AI1" t="s" s="24">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AJ1" t="s" s="24">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" ht="73" customHeight="1">
-      <c r="A2" t="s" s="106">
-        <v>407</v>
+      <c r="A2" t="s" s="105">
+        <v>409</v>
       </c>
       <c r="B2" t="s" s="27">
         <v>5</v>
       </c>
       <c r="C2" t="s" s="11">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D2" t="s" s="31">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E2" s="47">
         <v>20</v>
@@ -4862,25 +4825,25 @@
         <v>270</v>
       </c>
       <c r="I2" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J2" t="s" s="29">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K2" t="b" s="47">
         <v>1</v>
       </c>
       <c r="L2" t="s" s="29">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M2" t="s" s="29">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N2" t="s" s="29">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O2" t="s" s="29">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P2" s="47">
         <v>5</v>
@@ -4896,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="U2" t="s" s="29">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="V2" s="47">
         <v>5</v>
@@ -4936,18 +4899,18 @@
     </row>
     <row r="3" ht="73" customHeight="1">
       <c r="A3" t="s" s="9">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B3" t="s" s="27">
         <v>5</v>
       </c>
       <c r="C3" t="s" s="11">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D3" t="s" s="31">
-        <v>409</v>
-      </c>
-      <c r="E3" s="108">
+        <v>411</v>
+      </c>
+      <c r="E3" s="107">
         <v>20</v>
       </c>
       <c r="F3" s="40">
@@ -4956,50 +4919,50 @@
       <c r="G3" s="40">
         <v>7</v>
       </c>
-      <c r="H3" s="108">
+      <c r="H3" s="107">
         <v>270</v>
       </c>
       <c r="I3" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J3" t="s" s="39">
-        <v>411</v>
-      </c>
-      <c r="K3" t="b" s="108">
+        <v>413</v>
+      </c>
+      <c r="K3" t="b" s="107">
         <v>1</v>
       </c>
       <c r="L3" t="s" s="39">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M3" t="s" s="39">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N3" t="s" s="39">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O3" t="s" s="39">
-        <v>415</v>
-      </c>
-      <c r="P3" s="108">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="108">
+        <v>417</v>
+      </c>
+      <c r="P3" s="107">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="107">
         <v>7</v>
       </c>
-      <c r="R3" s="119"/>
-      <c r="S3" s="108">
+      <c r="R3" s="118"/>
+      <c r="S3" s="107">
         <v>200</v>
       </c>
-      <c r="T3" s="108">
+      <c r="T3" s="107">
         <v>1</v>
       </c>
       <c r="U3" t="s" s="29">
-        <v>416</v>
-      </c>
-      <c r="V3" s="108">
-        <v>5</v>
-      </c>
-      <c r="W3" s="108">
+        <v>418</v>
+      </c>
+      <c r="V3" s="107">
+        <v>5</v>
+      </c>
+      <c r="W3" s="107">
         <v>1027055</v>
       </c>
       <c r="X3" s="47">
@@ -5024,16 +4987,16 @@
     </row>
     <row r="4" ht="73" customHeight="1">
       <c r="A4" t="s" s="9">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B4" t="s" s="27">
         <v>5</v>
       </c>
       <c r="C4" t="s" s="11">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D4" t="s" s="31">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E4" s="40">
         <v>20</v>
@@ -5048,25 +5011,25 @@
         <v>270</v>
       </c>
       <c r="I4" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J4" t="s" s="31">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K4" t="b" s="40">
         <v>1</v>
       </c>
       <c r="L4" t="s" s="31">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M4" t="s" s="31">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N4" t="s" s="31">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O4" t="s" s="31">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P4" s="40">
         <v>5</v>
@@ -5082,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="U4" t="s" s="29">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="V4" s="40">
         <v>5</v>
@@ -5111,17 +5074,17 @@
       <c r="AJ4" s="41"/>
     </row>
     <row r="5" ht="59" customHeight="1">
-      <c r="A5" t="s" s="106">
-        <v>420</v>
+      <c r="A5" t="s" s="105">
+        <v>422</v>
       </c>
       <c r="B5" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C5" t="s" s="62">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s" s="31">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E5" s="40">
         <v>10</v>
@@ -5136,25 +5099,25 @@
         <v>20</v>
       </c>
       <c r="I5" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J5" t="s" s="31">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K5" t="b" s="40">
         <v>1</v>
       </c>
       <c r="L5" t="s" s="31">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M5" t="s" s="31">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="N5" t="s" s="31">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="O5" t="s" s="31">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P5" s="40">
         <v>2</v>
@@ -5167,14 +5130,14 @@
         <v>345</v>
       </c>
       <c r="T5" s="41"/>
-      <c r="U5" s="119"/>
+      <c r="U5" s="118"/>
       <c r="V5" s="40">
         <v>998</v>
       </c>
       <c r="W5" s="40">
         <v>1027051</v>
       </c>
-      <c r="X5" s="108">
+      <c r="X5" s="107">
         <v>1</v>
       </c>
       <c r="Y5" s="41"/>
@@ -5203,17 +5166,17 @@
       <c r="AJ5" s="41"/>
     </row>
     <row r="6" ht="59" customHeight="1">
-      <c r="A6" t="s" s="136">
-        <v>426</v>
+      <c r="A6" t="s" s="128">
+        <v>428</v>
       </c>
       <c r="B6" t="s" s="27">
         <v>70</v>
       </c>
       <c r="C6" t="s" s="62">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D6" t="s" s="31">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E6" s="40">
         <v>20</v>
@@ -5228,62 +5191,62 @@
         <v>270</v>
       </c>
       <c r="I6" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J6" t="s" s="32">
-        <v>429</v>
-      </c>
-      <c r="K6" t="b" s="137">
+        <v>431</v>
+      </c>
+      <c r="K6" t="b" s="129">
         <v>0</v>
       </c>
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
       <c r="O6" s="32"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="137">
-        <v>5</v>
-      </c>
-      <c r="W6" s="137">
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="129">
+        <v>5</v>
+      </c>
+      <c r="W6" s="129">
         <v>1027055</v>
       </c>
-      <c r="X6" s="137">
+      <c r="X6" s="129">
         <v>4</v>
       </c>
-      <c r="Y6" s="138"/>
-      <c r="Z6" s="138"/>
-      <c r="AA6" s="137">
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130"/>
+      <c r="AA6" s="129">
         <v>1</v>
       </c>
-      <c r="AB6" s="138"/>
-      <c r="AC6" t="b" s="137">
+      <c r="AB6" s="130"/>
+      <c r="AC6" t="b" s="129">
         <v>0</v>
       </c>
-      <c r="AD6" s="138"/>
-      <c r="AE6" s="138"/>
-      <c r="AF6" s="138"/>
-      <c r="AG6" s="138"/>
-      <c r="AH6" s="138"/>
-      <c r="AI6" s="138"/>
-      <c r="AJ6" s="138"/>
+      <c r="AD6" s="130"/>
+      <c r="AE6" s="130"/>
+      <c r="AF6" s="130"/>
+      <c r="AG6" s="130"/>
+      <c r="AH6" s="130"/>
+      <c r="AI6" s="130"/>
+      <c r="AJ6" s="130"/>
     </row>
     <row r="7" ht="59" customHeight="1">
-      <c r="A7" t="s" s="139">
-        <v>430</v>
+      <c r="A7" t="s" s="131">
+        <v>432</v>
       </c>
       <c r="B7" t="s" s="27">
         <v>5</v>
       </c>
       <c r="C7" t="s" s="62">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D7" t="s" s="31">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E7" s="40">
         <v>20</v>
@@ -5298,10 +5261,10 @@
         <v>270</v>
       </c>
       <c r="I7" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J7" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K7" t="b" s="47">
         <v>0</v>
@@ -5343,17 +5306,17 @@
       <c r="AJ7" s="50"/>
     </row>
     <row r="8" ht="59" customHeight="1">
-      <c r="A8" t="s" s="139">
-        <v>433</v>
+      <c r="A8" t="s" s="131">
+        <v>435</v>
       </c>
       <c r="B8" t="s" s="27">
         <v>5</v>
       </c>
       <c r="C8" t="s" s="62">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D8" t="s" s="31">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E8" s="40">
         <v>20</v>
@@ -5368,10 +5331,10 @@
         <v>270</v>
       </c>
       <c r="I8" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J8" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K8" t="b" s="47">
         <v>0</v>
@@ -5413,19 +5376,19 @@
       <c r="AJ8" s="50"/>
     </row>
     <row r="9" ht="59" customHeight="1">
-      <c r="A9" t="s" s="139">
-        <v>436</v>
+      <c r="A9" t="s" s="131">
+        <v>438</v>
       </c>
       <c r="B9" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C9" t="s" s="62">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D9" t="s" s="32">
-        <v>438</v>
-      </c>
-      <c r="E9" s="137">
+        <v>440</v>
+      </c>
+      <c r="E9" s="129">
         <v>215</v>
       </c>
       <c r="F9" s="40">
@@ -5434,14 +5397,14 @@
       <c r="G9" s="40">
         <v>7</v>
       </c>
-      <c r="H9" s="137">
+      <c r="H9" s="129">
         <v>280</v>
       </c>
       <c r="I9" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J9" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K9" t="b" s="47">
         <v>0</v>
@@ -5483,21 +5446,21 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="s" s="29">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" ht="59" customHeight="1">
-      <c r="A10" t="s" s="139">
-        <v>440</v>
-      </c>
-      <c r="B10" t="s" s="140">
+      <c r="A10" t="s" s="131">
+        <v>442</v>
+      </c>
+      <c r="B10" t="s" s="132">
         <v>5</v>
       </c>
       <c r="C10" t="s" s="62">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D10" t="s" s="29">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E10" s="47">
         <v>215</v>
@@ -5512,10 +5475,10 @@
         <v>280</v>
       </c>
       <c r="I10" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J10" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K10" t="b" s="47">
         <v>0</v>
@@ -5557,21 +5520,21 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="s" s="29">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" ht="59" customHeight="1">
-      <c r="A11" t="s" s="139">
-        <v>444</v>
-      </c>
-      <c r="B11" t="s" s="141">
+      <c r="A11" t="s" s="131">
+        <v>446</v>
+      </c>
+      <c r="B11" t="s" s="133">
         <v>14</v>
       </c>
       <c r="C11" t="s" s="62">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D11" t="s" s="29">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E11" s="47">
         <v>215</v>
@@ -5586,10 +5549,10 @@
         <v>280</v>
       </c>
       <c r="I11" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J11" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K11" t="b" s="47">
         <v>0</v>
@@ -5633,17 +5596,17 @@
       <c r="AJ11" s="50"/>
     </row>
     <row r="12" ht="59" customHeight="1">
-      <c r="A12" t="s" s="139">
-        <v>447</v>
+      <c r="A12" t="s" s="131">
+        <v>449</v>
       </c>
       <c r="B12" t="s" s="27">
         <v>5</v>
       </c>
       <c r="C12" t="s" s="62">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D12" t="s" s="29">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E12" s="47">
         <v>215</v>
@@ -5658,10 +5621,10 @@
         <v>280</v>
       </c>
       <c r="I12" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J12" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K12" t="b" s="47">
         <v>0</v>
@@ -5705,17 +5668,17 @@
       <c r="AJ12" s="50"/>
     </row>
     <row r="13" ht="59" customHeight="1">
-      <c r="A13" t="s" s="139">
-        <v>450</v>
-      </c>
-      <c r="B13" t="s" s="140">
+      <c r="A13" t="s" s="131">
+        <v>452</v>
+      </c>
+      <c r="B13" t="s" s="132">
         <v>14</v>
       </c>
       <c r="C13" t="s" s="62">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D13" t="s" s="29">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E13" s="47">
         <v>210</v>
@@ -5730,10 +5693,10 @@
         <v>270</v>
       </c>
       <c r="I13" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J13" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K13" t="b" s="47">
         <v>0</v>
@@ -5775,17 +5738,17 @@
       <c r="AJ13" s="50"/>
     </row>
     <row r="14" ht="59" customHeight="1">
-      <c r="A14" t="s" s="139">
-        <v>453</v>
-      </c>
-      <c r="B14" t="s" s="142">
+      <c r="A14" t="s" s="131">
+        <v>455</v>
+      </c>
+      <c r="B14" t="s" s="134">
         <v>5</v>
       </c>
       <c r="C14" t="s" s="62">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D14" t="s" s="29">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E14" s="47">
         <v>210</v>
@@ -5800,10 +5763,10 @@
         <v>270</v>
       </c>
       <c r="I14" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J14" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K14" t="b" s="47">
         <v>0</v>
@@ -5845,17 +5808,17 @@
       <c r="AJ14" s="50"/>
     </row>
     <row r="15" ht="59" customHeight="1">
-      <c r="A15" t="s" s="139">
-        <v>456</v>
-      </c>
-      <c r="B15" t="s" s="142">
+      <c r="A15" t="s" s="131">
+        <v>458</v>
+      </c>
+      <c r="B15" t="s" s="134">
         <v>5</v>
       </c>
       <c r="C15" t="s" s="62">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D15" t="s" s="29">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E15" s="47">
         <v>210</v>
@@ -5870,10 +5833,10 @@
         <v>270</v>
       </c>
       <c r="I15" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J15" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K15" t="b" s="47">
         <v>0</v>
@@ -5915,17 +5878,17 @@
       <c r="AJ15" s="50"/>
     </row>
     <row r="16" ht="59" customHeight="1">
-      <c r="A16" t="s" s="139">
-        <v>459</v>
-      </c>
-      <c r="B16" t="s" s="142">
+      <c r="A16" t="s" s="131">
+        <v>461</v>
+      </c>
+      <c r="B16" t="s" s="134">
         <v>5</v>
       </c>
       <c r="C16" t="s" s="62">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D16" t="s" s="29">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E16" s="47">
         <v>210</v>
@@ -5940,10 +5903,10 @@
         <v>270</v>
       </c>
       <c r="I16" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J16" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K16" t="b" s="47">
         <v>0</v>
@@ -5985,17 +5948,17 @@
       <c r="AJ16" s="50"/>
     </row>
     <row r="17" ht="53.6" customHeight="1">
-      <c r="A17" t="s" s="139">
-        <v>462</v>
-      </c>
-      <c r="B17" t="s" s="142">
+      <c r="A17" t="s" s="131">
+        <v>464</v>
+      </c>
+      <c r="B17" t="s" s="134">
         <v>14</v>
       </c>
       <c r="C17" t="s" s="62">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D17" t="s" s="29">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E17" s="47">
         <v>210</v>
@@ -6010,10 +5973,10 @@
         <v>270</v>
       </c>
       <c r="I17" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J17" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K17" t="b" s="47">
         <v>0</v>
@@ -6055,17 +6018,17 @@
       <c r="AJ17" s="50"/>
     </row>
     <row r="18" ht="53.6" customHeight="1">
-      <c r="A18" t="s" s="139">
-        <v>465</v>
-      </c>
-      <c r="B18" t="s" s="142">
+      <c r="A18" t="s" s="131">
+        <v>467</v>
+      </c>
+      <c r="B18" t="s" s="134">
         <v>5</v>
       </c>
       <c r="C18" t="s" s="62">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D18" t="s" s="29">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E18" s="47">
         <v>210</v>
@@ -6080,10 +6043,10 @@
         <v>270</v>
       </c>
       <c r="I18" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J18" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K18" t="b" s="47">
         <v>0</v>
@@ -6125,19 +6088,19 @@
       <c r="AJ18" s="50"/>
     </row>
     <row r="19" ht="53.6" customHeight="1">
-      <c r="A19" t="s" s="143">
-        <v>468</v>
-      </c>
-      <c r="B19" t="s" s="141">
+      <c r="A19" t="s" s="135">
+        <v>470</v>
+      </c>
+      <c r="B19" t="s" s="133">
         <v>70</v>
       </c>
       <c r="C19" t="s" s="62">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D19" t="s" s="29">
-        <v>321</v>
-      </c>
-      <c r="E19" s="108">
+        <v>320</v>
+      </c>
+      <c r="E19" s="107">
         <v>206</v>
       </c>
       <c r="F19" s="40">
@@ -6146,14 +6109,14 @@
       <c r="G19" s="40">
         <v>7</v>
       </c>
-      <c r="H19" s="108">
+      <c r="H19" s="107">
         <v>2000</v>
       </c>
       <c r="I19" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J19" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K19" t="b" s="47">
         <v>0</v>
@@ -6197,17 +6160,17 @@
       <c r="AJ19" s="50"/>
     </row>
     <row r="20" ht="53.6" customHeight="1">
-      <c r="A20" t="s" s="106">
-        <v>470</v>
+      <c r="A20" t="s" s="105">
+        <v>472</v>
       </c>
       <c r="B20" t="s" s="27">
         <v>70</v>
       </c>
       <c r="C20" t="s" s="62">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D20" t="s" s="39">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E20" s="40">
         <v>205</v>
@@ -6222,10 +6185,10 @@
         <v>2000</v>
       </c>
       <c r="I20" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J20" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K20" t="b" s="47">
         <v>0</v>
@@ -6269,17 +6232,17 @@
       <c r="AJ20" s="50"/>
     </row>
     <row r="21" ht="53.6" customHeight="1">
-      <c r="A21" t="s" s="106">
-        <v>472</v>
+      <c r="A21" t="s" s="105">
+        <v>474</v>
       </c>
       <c r="B21" t="s" s="27">
         <v>5</v>
       </c>
       <c r="C21" t="s" s="62">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D21" t="s" s="31">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E21" s="40">
         <v>20</v>
@@ -6294,10 +6257,10 @@
         <v>270</v>
       </c>
       <c r="I21" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J21" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K21" t="b" s="47">
         <v>0</v>
@@ -6339,19 +6302,19 @@
       <c r="AJ21" s="50"/>
     </row>
     <row r="22" ht="53.6" customHeight="1">
-      <c r="A22" t="s" s="136">
-        <v>475</v>
-      </c>
-      <c r="B22" t="s" s="140">
+      <c r="A22" t="s" s="128">
+        <v>477</v>
+      </c>
+      <c r="B22" t="s" s="132">
         <v>14</v>
       </c>
       <c r="C22" t="s" s="62">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D22" t="s" s="32">
-        <v>477</v>
-      </c>
-      <c r="E22" s="137">
+        <v>479</v>
+      </c>
+      <c r="E22" s="129">
         <v>20</v>
       </c>
       <c r="F22" s="40">
@@ -6360,14 +6323,14 @@
       <c r="G22" s="40">
         <v>7</v>
       </c>
-      <c r="H22" s="137">
+      <c r="H22" s="129">
         <v>270</v>
       </c>
       <c r="I22" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J22" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K22" t="b" s="47">
         <v>0</v>
@@ -6409,17 +6372,17 @@
       <c r="AJ22" s="50"/>
     </row>
     <row r="23" ht="53.6" customHeight="1">
-      <c r="A23" t="s" s="139">
-        <v>478</v>
-      </c>
-      <c r="B23" t="s" s="142">
+      <c r="A23" t="s" s="131">
+        <v>480</v>
+      </c>
+      <c r="B23" t="s" s="134">
         <v>5</v>
       </c>
       <c r="C23" t="s" s="62">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D23" t="s" s="29">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E23" s="47">
         <v>20</v>
@@ -6434,10 +6397,10 @@
         <v>270</v>
       </c>
       <c r="I23" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J23" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K23" t="b" s="47">
         <v>0</v>
@@ -6479,17 +6442,17 @@
       <c r="AJ23" s="50"/>
     </row>
     <row r="24" ht="53.6" customHeight="1">
-      <c r="A24" t="s" s="143">
-        <v>481</v>
-      </c>
-      <c r="B24" t="s" s="142">
+      <c r="A24" t="s" s="135">
+        <v>483</v>
+      </c>
+      <c r="B24" t="s" s="134">
         <v>70</v>
       </c>
       <c r="C24" t="s" s="62">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D24" t="s" s="39">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E24" s="47">
         <v>20</v>
@@ -6504,10 +6467,10 @@
         <v>270</v>
       </c>
       <c r="I24" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J24" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K24" t="b" s="47">
         <v>0</v>
@@ -6532,38 +6495,38 @@
         <v>0</v>
       </c>
       <c r="Y24" t="s" s="39">
-        <v>484</v>
-      </c>
-      <c r="Z24" s="108">
+        <v>486</v>
+      </c>
+      <c r="Z24" s="107">
         <v>200</v>
       </c>
-      <c r="AA24" s="108">
+      <c r="AA24" s="107">
         <v>1</v>
       </c>
-      <c r="AB24" s="119"/>
-      <c r="AC24" t="b" s="108">
+      <c r="AB24" s="118"/>
+      <c r="AC24" t="b" s="107">
         <v>0</v>
       </c>
-      <c r="AD24" s="119"/>
-      <c r="AE24" s="119"/>
-      <c r="AF24" s="119"/>
-      <c r="AG24" s="119"/>
-      <c r="AH24" s="119"/>
-      <c r="AI24" s="119"/>
-      <c r="AJ24" s="119"/>
+      <c r="AD24" s="118"/>
+      <c r="AE24" s="118"/>
+      <c r="AF24" s="118"/>
+      <c r="AG24" s="118"/>
+      <c r="AH24" s="118"/>
+      <c r="AI24" s="118"/>
+      <c r="AJ24" s="118"/>
     </row>
     <row r="25" ht="47.05" customHeight="1">
-      <c r="A25" t="s" s="106">
-        <v>485</v>
-      </c>
-      <c r="B25" t="s" s="141">
+      <c r="A25" t="s" s="105">
+        <v>487</v>
+      </c>
+      <c r="B25" t="s" s="133">
         <v>5</v>
       </c>
       <c r="C25" t="s" s="62">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D25" t="s" s="31">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E25" s="47">
         <v>203</v>
@@ -6578,25 +6541,25 @@
         <v>270</v>
       </c>
       <c r="I25" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J25" t="s" s="29">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K25" t="b" s="47">
         <v>1</v>
       </c>
       <c r="L25" t="s" s="29">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M25" t="s" s="29">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N25" t="s" s="29">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O25" t="s" s="29">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P25" s="47">
         <v>5</v>
@@ -6637,19 +6600,19 @@
       <c r="AJ25" s="41"/>
     </row>
     <row r="26" ht="46.4" customHeight="1">
-      <c r="A26" t="s" s="106">
-        <v>488</v>
+      <c r="A26" t="s" s="105">
+        <v>490</v>
       </c>
       <c r="B26" t="s" s="27">
         <v>70</v>
       </c>
       <c r="C26" t="s" s="62">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D26" t="s" s="31">
-        <v>490</v>
-      </c>
-      <c r="E26" s="108">
+        <v>492</v>
+      </c>
+      <c r="E26" s="107">
         <v>20</v>
       </c>
       <c r="F26" s="40">
@@ -6658,46 +6621,46 @@
       <c r="G26" s="40">
         <v>7</v>
       </c>
-      <c r="H26" s="108">
+      <c r="H26" s="107">
         <v>270</v>
       </c>
       <c r="I26" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J26" t="s" s="39">
-        <v>411</v>
-      </c>
-      <c r="K26" t="b" s="108">
+        <v>413</v>
+      </c>
+      <c r="K26" t="b" s="107">
         <v>1</v>
       </c>
       <c r="L26" t="s" s="39">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M26" t="s" s="39">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N26" t="s" s="39">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O26" t="s" s="39">
-        <v>415</v>
-      </c>
-      <c r="P26" s="108">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="108">
+        <v>417</v>
+      </c>
+      <c r="P26" s="107">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="107">
         <v>7</v>
       </c>
-      <c r="R26" s="119"/>
-      <c r="S26" s="108">
+      <c r="R26" s="118"/>
+      <c r="S26" s="107">
         <v>200</v>
       </c>
-      <c r="T26" s="119"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="108">
-        <v>5</v>
-      </c>
-      <c r="W26" s="108">
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="107">
+        <v>5</v>
+      </c>
+      <c r="W26" s="107">
         <v>1027055</v>
       </c>
       <c r="X26" s="47">
@@ -6731,17 +6694,17 @@
       <c r="AJ26" s="41"/>
     </row>
     <row r="27" ht="45" customHeight="1">
-      <c r="A27" t="s" s="106">
-        <v>491</v>
+      <c r="A27" t="s" s="105">
+        <v>493</v>
       </c>
       <c r="B27" t="s" s="27">
         <v>5</v>
       </c>
       <c r="C27" t="s" s="62">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D27" t="s" s="31">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E27" s="40">
         <v>20</v>
@@ -6756,10 +6719,10 @@
         <v>270</v>
       </c>
       <c r="I27" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J27" t="s" s="31">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K27" t="b" s="40">
         <v>0</v>
@@ -6780,7 +6743,7 @@
       <c r="W27" s="40">
         <v>1027055</v>
       </c>
-      <c r="X27" s="108">
+      <c r="X27" s="107">
         <v>5</v>
       </c>
       <c r="Y27" s="41"/>
@@ -6809,17 +6772,17 @@
       <c r="AJ27" s="41"/>
     </row>
     <row r="28" ht="59" customHeight="1">
-      <c r="A28" t="s" s="106">
-        <v>494</v>
+      <c r="A28" t="s" s="105">
+        <v>496</v>
       </c>
       <c r="B28" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C28" t="s" s="62">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D28" t="s" s="31">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E28" s="40">
         <v>20</v>
@@ -6834,10 +6797,10 @@
         <v>270</v>
       </c>
       <c r="I28" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J28" t="s" s="31">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K28" t="b" s="40">
         <v>0</v>
@@ -6887,17 +6850,17 @@
       <c r="AJ28" s="41"/>
     </row>
     <row r="29" ht="46.4" customHeight="1">
-      <c r="A29" t="s" s="106">
-        <v>497</v>
+      <c r="A29" t="s" s="105">
+        <v>499</v>
       </c>
       <c r="B29" t="s" s="27">
         <v>5</v>
       </c>
       <c r="C29" t="s" s="62">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D29" t="s" s="31">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E29" s="40">
         <v>20</v>
@@ -6912,10 +6875,10 @@
         <v>270</v>
       </c>
       <c r="I29" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J29" t="s" s="31">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K29" t="b" s="40">
         <v>0</v>
@@ -6936,7 +6899,7 @@
       <c r="W29" s="40">
         <v>1027055</v>
       </c>
-      <c r="X29" s="137">
+      <c r="X29" s="129">
         <v>5</v>
       </c>
       <c r="Y29" s="41"/>
@@ -6965,8 +6928,8 @@
       <c r="AJ29" s="41"/>
     </row>
     <row r="30" ht="46.4" customHeight="1">
-      <c r="A30" t="s" s="106">
-        <v>500</v>
+      <c r="A30" t="s" s="105">
+        <v>502</v>
       </c>
       <c r="B30" t="s" s="27">
         <v>14</v>
@@ -6975,7 +6938,7 @@
         <v>212</v>
       </c>
       <c r="D30" t="s" s="31">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E30" s="40">
         <v>20</v>
@@ -6990,25 +6953,25 @@
         <v>270</v>
       </c>
       <c r="I30" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J30" t="s" s="31">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K30" t="b" s="40">
         <v>1</v>
       </c>
       <c r="L30" t="s" s="31">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M30" t="s" s="31">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N30" t="s" s="31">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O30" t="s" s="31">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P30" s="40">
         <v>5</v>
@@ -7057,7 +7020,7 @@
       <c r="AJ30" s="41"/>
     </row>
     <row r="31" ht="46.4" customHeight="1">
-      <c r="A31" t="s" s="106">
+      <c r="A31" t="s" s="105">
         <v>215</v>
       </c>
       <c r="B31" t="s" s="27">
@@ -7067,7 +7030,7 @@
         <v>216</v>
       </c>
       <c r="D31" t="s" s="31">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E31" s="40">
         <v>20</v>
@@ -7082,25 +7045,25 @@
         <v>270</v>
       </c>
       <c r="I31" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J31" t="s" s="31">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K31" t="b" s="40">
         <v>1</v>
       </c>
       <c r="L31" t="s" s="31">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M31" t="s" s="31">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N31" t="s" s="31">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O31" t="s" s="31">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P31" s="40">
         <v>5</v>
@@ -7149,21 +7112,21 @@
       <c r="AJ31" s="41"/>
     </row>
     <row r="32" ht="31.4" customHeight="1">
-      <c r="A32" t="s" s="106">
-        <v>503</v>
+      <c r="A32" t="s" s="105">
+        <v>505</v>
       </c>
       <c r="B32" t="s" s="27">
         <v>5</v>
       </c>
       <c r="C32" t="s" s="62">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
       <c r="H32" s="41"/>
-      <c r="I32" s="119"/>
+      <c r="I32" s="118"/>
       <c r="J32" s="41"/>
       <c r="K32" s="41"/>
       <c r="L32" s="41"/>
@@ -7178,7 +7141,7 @@
       <c r="U32" s="41"/>
       <c r="V32" s="41"/>
       <c r="W32" s="41"/>
-      <c r="X32" s="119"/>
+      <c r="X32" s="118"/>
       <c r="Y32" s="41"/>
       <c r="Z32" s="41"/>
       <c r="AA32" s="41"/>
@@ -7193,21 +7156,21 @@
       <c r="AJ32" s="41"/>
     </row>
     <row r="33" ht="31.4" customHeight="1">
-      <c r="A33" t="s" s="106">
-        <v>505</v>
+      <c r="A33" t="s" s="105">
+        <v>507</v>
       </c>
       <c r="B33" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C33" t="s" s="62">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
       <c r="H33" s="41"/>
-      <c r="I33" s="138"/>
+      <c r="I33" s="130"/>
       <c r="J33" s="41"/>
       <c r="K33" s="41"/>
       <c r="L33" s="41"/>
@@ -7222,7 +7185,7 @@
       <c r="U33" s="41"/>
       <c r="V33" s="41"/>
       <c r="W33" s="41"/>
-      <c r="X33" s="138"/>
+      <c r="X33" s="130"/>
       <c r="Y33" s="41"/>
       <c r="Z33" s="41"/>
       <c r="AA33" s="41"/>
@@ -7237,14 +7200,14 @@
       <c r="AJ33" s="41"/>
     </row>
     <row r="34" ht="61.4" customHeight="1">
-      <c r="A34" t="s" s="106">
-        <v>507</v>
+      <c r="A34" t="s" s="105">
+        <v>509</v>
       </c>
       <c r="B34" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C34" t="s" s="62">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="40">
@@ -7260,25 +7223,25 @@
         <v>270</v>
       </c>
       <c r="I34" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J34" t="s" s="31">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K34" t="b" s="40">
         <v>1</v>
       </c>
       <c r="L34" t="s" s="31">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M34" t="s" s="31">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N34" t="s" s="31">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O34" t="s" s="31">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P34" s="40">
         <v>5</v>
@@ -7327,17 +7290,17 @@
       <c r="AJ34" s="41"/>
     </row>
     <row r="35" ht="61.4" customHeight="1">
-      <c r="A35" t="s" s="106">
-        <v>509</v>
+      <c r="A35" t="s" s="105">
+        <v>511</v>
       </c>
       <c r="B35" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C35" t="s" s="62">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D35" t="s" s="31">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E35" s="41"/>
       <c r="F35" s="40">
@@ -7350,25 +7313,25 @@
         <v>270</v>
       </c>
       <c r="I35" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J35" t="s" s="31">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K35" t="b" s="40">
         <v>1</v>
       </c>
       <c r="L35" t="s" s="31">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M35" t="s" s="31">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N35" t="s" s="31">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O35" t="s" s="31">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P35" s="40">
         <v>5</v>
@@ -7417,17 +7380,17 @@
       <c r="AJ35" s="41"/>
     </row>
     <row r="36" ht="61.4" customHeight="1">
-      <c r="A36" t="s" s="106">
-        <v>512</v>
+      <c r="A36" t="s" s="105">
+        <v>514</v>
       </c>
       <c r="B36" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C36" t="s" s="62">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D36" t="s" s="31">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E36" s="40">
         <v>20</v>
@@ -7442,23 +7405,23 @@
         <v>270</v>
       </c>
       <c r="I36" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J36" s="41"/>
       <c r="K36" t="b" s="40">
         <v>1</v>
       </c>
       <c r="L36" t="s" s="31">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M36" t="s" s="31">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N36" t="s" s="31">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O36" t="s" s="31">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P36" s="40">
         <v>5</v>
@@ -7478,7 +7441,7 @@
       <c r="W36" s="40">
         <v>4816772</v>
       </c>
-      <c r="X36" s="108">
+      <c r="X36" s="107">
         <v>8</v>
       </c>
       <c r="Y36" s="41"/>
@@ -7507,17 +7470,17 @@
       <c r="AJ36" s="41"/>
     </row>
     <row r="37" ht="61.4" customHeight="1">
-      <c r="A37" t="s" s="106">
-        <v>515</v>
+      <c r="A37" t="s" s="105">
+        <v>517</v>
       </c>
       <c r="B37" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C37" t="s" s="62">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D37" t="s" s="31">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E37" s="40">
         <v>20</v>
@@ -7530,25 +7493,25 @@
         <v>270</v>
       </c>
       <c r="I37" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J37" t="s" s="31">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K37" t="b" s="40">
         <v>1</v>
       </c>
       <c r="L37" t="s" s="31">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M37" t="s" s="31">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N37" t="s" s="31">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O37" t="s" s="31">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P37" s="40">
         <v>5</v>
@@ -7597,17 +7560,17 @@
       <c r="AJ37" s="41"/>
     </row>
     <row r="38" ht="61.4" customHeight="1">
-      <c r="A38" t="s" s="106">
-        <v>518</v>
+      <c r="A38" t="s" s="105">
+        <v>520</v>
       </c>
       <c r="B38" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C38" t="s" s="62">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D38" t="s" s="31">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E38" s="40">
         <v>20</v>
@@ -7620,25 +7583,25 @@
         <v>270</v>
       </c>
       <c r="I38" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J38" t="s" s="31">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K38" t="b" s="40">
         <v>1</v>
       </c>
       <c r="L38" t="s" s="31">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M38" t="s" s="31">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N38" t="s" s="31">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O38" t="s" s="31">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P38" s="40">
         <v>5</v>
@@ -7687,17 +7650,17 @@
       <c r="AJ38" s="41"/>
     </row>
     <row r="39" ht="61.4" customHeight="1">
-      <c r="A39" t="s" s="106">
-        <v>521</v>
+      <c r="A39" t="s" s="105">
+        <v>523</v>
       </c>
       <c r="B39" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C39" t="s" s="62">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D39" t="s" s="31">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E39" s="40">
         <v>20</v>
@@ -7710,25 +7673,25 @@
       </c>
       <c r="H39" s="41"/>
       <c r="I39" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J39" t="s" s="31">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K39" t="b" s="40">
         <v>1</v>
       </c>
       <c r="L39" t="s" s="31">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M39" t="s" s="31">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N39" t="s" s="31">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O39" t="s" s="31">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P39" s="40">
         <v>5</v>
@@ -7777,17 +7740,17 @@
       <c r="AJ39" s="41"/>
     </row>
     <row r="40" ht="61.4" customHeight="1">
-      <c r="A40" t="s" s="106">
-        <v>524</v>
+      <c r="A40" t="s" s="105">
+        <v>526</v>
       </c>
       <c r="B40" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C40" t="s" s="62">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D40" t="s" s="31">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E40" s="40">
         <v>20</v>
@@ -7802,10 +7765,10 @@
         <v>270</v>
       </c>
       <c r="I40" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J40" t="s" s="31">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K40" t="b" s="40">
         <v>1</v>
@@ -7855,17 +7818,17 @@
       <c r="AJ40" s="41"/>
     </row>
     <row r="41" ht="61.4" customHeight="1">
-      <c r="A41" t="s" s="106">
-        <v>527</v>
+      <c r="A41" t="s" s="105">
+        <v>529</v>
       </c>
       <c r="B41" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C41" t="s" s="62">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D41" t="s" s="31">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E41" s="40">
         <v>20</v>
@@ -7880,25 +7843,25 @@
         <v>270</v>
       </c>
       <c r="I41" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J41" t="s" s="31">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K41" t="b" s="40">
         <v>1</v>
       </c>
       <c r="L41" t="s" s="31">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M41" t="s" s="31">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N41" t="s" s="31">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O41" t="s" s="31">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P41" s="40">
         <v>5</v>
@@ -7916,7 +7879,7 @@
       <c r="W41" s="40">
         <v>4816772</v>
       </c>
-      <c r="X41" s="137">
+      <c r="X41" s="129">
         <v>2</v>
       </c>
       <c r="Y41" s="41"/>
@@ -7945,17 +7908,17 @@
       <c r="AJ41" s="41"/>
     </row>
     <row r="42" ht="61.4" customHeight="1">
-      <c r="A42" t="s" s="106">
-        <v>530</v>
+      <c r="A42" t="s" s="105">
+        <v>532</v>
       </c>
       <c r="B42" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C42" t="s" s="62">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D42" t="s" s="31">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E42" s="40">
         <v>20</v>
@@ -7970,25 +7933,25 @@
         <v>270</v>
       </c>
       <c r="I42" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J42" t="s" s="31">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K42" t="b" s="40">
         <v>1</v>
       </c>
       <c r="L42" t="s" s="31">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M42" t="s" s="31">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N42" t="s" s="31">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O42" t="s" s="31">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P42" s="40">
         <v>5</v>
@@ -8035,20 +7998,20 @@
       <c r="AJ42" s="41"/>
     </row>
     <row r="43" ht="146.7" customHeight="1">
-      <c r="A43" t="s" s="106">
-        <v>533</v>
+      <c r="A43" t="s" s="105">
+        <v>535</v>
       </c>
       <c r="B43" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C43" t="s" s="62">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D43" t="s" s="31">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E43" t="s" s="31">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F43" s="40">
         <v>5</v>
@@ -8060,25 +8023,25 @@
         <v>280</v>
       </c>
       <c r="I43" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J43" t="s" s="31">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="K43" t="b" s="40">
         <v>1</v>
       </c>
       <c r="L43" t="s" s="31">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M43" t="s" s="31">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="N43" t="s" s="31">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="O43" t="s" s="31">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="P43" s="40">
         <v>5</v>
@@ -8127,17 +8090,17 @@
       <c r="AJ43" s="41"/>
     </row>
     <row r="44" ht="62.05" customHeight="1">
-      <c r="A44" t="s" s="106">
-        <v>542</v>
+      <c r="A44" t="s" s="105">
+        <v>544</v>
       </c>
       <c r="B44" t="s" s="27">
         <v>11</v>
       </c>
       <c r="C44" t="s" s="62">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D44" t="s" s="31">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E44" s="40">
         <v>20</v>
@@ -8152,25 +8115,25 @@
         <v>10000</v>
       </c>
       <c r="I44" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J44" t="s" s="31">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K44" t="b" s="40">
         <v>1</v>
       </c>
       <c r="L44" t="s" s="31">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M44" t="s" s="31">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N44" t="s" s="31">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O44" t="s" s="31">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P44" s="40">
         <v>10000.99</v>
@@ -8221,17 +8184,17 @@
       <c r="AJ44" s="41"/>
     </row>
     <row r="45" ht="77.05" customHeight="1">
-      <c r="A45" t="s" s="106">
-        <v>545</v>
+      <c r="A45" t="s" s="105">
+        <v>547</v>
       </c>
       <c r="B45" t="s" s="27">
         <v>11</v>
       </c>
       <c r="C45" t="s" s="62">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D45" t="s" s="31">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E45" s="40">
         <v>20</v>
@@ -8246,25 +8209,25 @@
         <v>270</v>
       </c>
       <c r="I45" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J45" t="s" s="31">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K45" t="b" s="40">
         <v>1</v>
       </c>
       <c r="L45" t="s" s="31">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M45" t="s" s="31">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N45" t="s" s="31">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O45" t="s" s="31">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P45" s="40">
         <v>5</v>
@@ -8313,17 +8276,17 @@
       <c r="AJ45" s="41"/>
     </row>
     <row r="46" ht="77.05" customHeight="1">
-      <c r="A46" t="s" s="144">
-        <v>548</v>
+      <c r="A46" t="s" s="136">
+        <v>550</v>
       </c>
       <c r="B46" t="s" s="27">
         <v>14</v>
       </c>
-      <c r="C46" t="s" s="109">
-        <v>549</v>
+      <c r="C46" t="s" s="108">
+        <v>551</v>
       </c>
       <c r="D46" t="s" s="31">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E46" s="40">
         <v>20</v>
@@ -8338,25 +8301,25 @@
         <v>270</v>
       </c>
       <c r="I46" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J46" t="s" s="31">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K46" t="b" s="40">
         <v>1</v>
       </c>
       <c r="L46" t="s" s="31">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M46" t="s" s="31">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N46" t="s" s="31">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O46" t="s" s="31">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P46" s="40">
         <v>5</v>
@@ -8405,17 +8368,17 @@
       <c r="AJ46" s="41"/>
     </row>
     <row r="47" ht="77.05" customHeight="1">
-      <c r="A47" t="s" s="106">
-        <v>551</v>
+      <c r="A47" t="s" s="105">
+        <v>553</v>
       </c>
       <c r="B47" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C47" t="s" s="62">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D47" t="s" s="31">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E47" s="40">
         <v>20</v>
@@ -8430,25 +8393,25 @@
         <v>270</v>
       </c>
       <c r="I47" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J47" t="s" s="31">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K47" t="b" s="40">
         <v>1</v>
       </c>
       <c r="L47" t="s" s="31">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M47" t="s" s="31">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N47" t="s" s="31">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O47" t="s" s="31">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P47" s="40">
         <v>5</v>
@@ -8497,19 +8460,19 @@
       <c r="AJ47" s="41"/>
     </row>
     <row r="48" ht="65.95" customHeight="1">
-      <c r="A48" t="s" s="106">
-        <v>554</v>
+      <c r="A48" t="s" s="105">
+        <v>556</v>
       </c>
       <c r="B48" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C48" t="s" s="62">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D48" t="s" s="32">
-        <v>556</v>
-      </c>
-      <c r="E48" s="137">
+        <v>558</v>
+      </c>
+      <c r="E48" s="129">
         <v>20</v>
       </c>
       <c r="F48" s="40">
@@ -8518,76 +8481,76 @@
       <c r="G48" s="40">
         <v>7</v>
       </c>
-      <c r="H48" s="137">
+      <c r="H48" s="129">
         <v>270</v>
       </c>
       <c r="I48" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J48" t="s" s="32">
-        <v>411</v>
-      </c>
-      <c r="K48" t="b" s="137">
+        <v>413</v>
+      </c>
+      <c r="K48" t="b" s="129">
         <v>0</v>
       </c>
-      <c r="L48" s="138"/>
-      <c r="M48" s="138"/>
-      <c r="N48" s="138"/>
-      <c r="O48" s="138"/>
-      <c r="P48" s="138"/>
-      <c r="Q48" s="138"/>
-      <c r="R48" s="138"/>
-      <c r="S48" s="138"/>
-      <c r="T48" s="138"/>
-      <c r="U48" s="138"/>
-      <c r="V48" s="137">
-        <v>5</v>
-      </c>
-      <c r="W48" s="137">
+      <c r="L48" s="130"/>
+      <c r="M48" s="130"/>
+      <c r="N48" s="130"/>
+      <c r="O48" s="130"/>
+      <c r="P48" s="130"/>
+      <c r="Q48" s="130"/>
+      <c r="R48" s="130"/>
+      <c r="S48" s="130"/>
+      <c r="T48" s="130"/>
+      <c r="U48" s="130"/>
+      <c r="V48" s="129">
+        <v>5</v>
+      </c>
+      <c r="W48" s="129">
         <v>4816772</v>
       </c>
       <c r="X48" s="47">
         <v>4</v>
       </c>
-      <c r="Y48" s="138"/>
-      <c r="Z48" s="138"/>
-      <c r="AA48" s="137">
+      <c r="Y48" s="130"/>
+      <c r="Z48" s="130"/>
+      <c r="AA48" s="129">
         <v>1</v>
       </c>
-      <c r="AB48" s="138"/>
-      <c r="AC48" t="b" s="137">
+      <c r="AB48" s="130"/>
+      <c r="AC48" t="b" s="129">
         <v>1</v>
       </c>
-      <c r="AD48" s="137">
+      <c r="AD48" s="129">
         <v>50</v>
       </c>
-      <c r="AE48" s="137">
+      <c r="AE48" s="129">
         <v>50</v>
       </c>
-      <c r="AF48" s="137">
+      <c r="AF48" s="129">
         <v>200</v>
       </c>
-      <c r="AG48" t="b" s="137">
+      <c r="AG48" t="b" s="129">
         <v>1</v>
       </c>
-      <c r="AH48" s="137">
+      <c r="AH48" s="129">
         <v>200</v>
       </c>
-      <c r="AI48" s="138"/>
-      <c r="AJ48" s="138"/>
+      <c r="AI48" s="130"/>
+      <c r="AJ48" s="130"/>
     </row>
     <row r="49" ht="91.1" customHeight="1">
-      <c r="A49" t="s" s="106">
-        <v>557</v>
+      <c r="A49" t="s" s="105">
+        <v>559</v>
       </c>
       <c r="B49" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C49" t="s" s="62">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D49" t="s" s="29">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E49" s="47">
         <v>20</v>
@@ -8602,10 +8565,10 @@
         <v>270</v>
       </c>
       <c r="I49" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J49" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K49" t="b" s="47">
         <v>0</v>
@@ -8647,17 +8610,17 @@
       <c r="AJ49" s="50"/>
     </row>
     <row r="50" ht="81.95" customHeight="1">
-      <c r="A50" t="s" s="106">
-        <v>560</v>
-      </c>
-      <c r="B50" t="s" s="140">
+      <c r="A50" t="s" s="105">
+        <v>562</v>
+      </c>
+      <c r="B50" t="s" s="132">
         <v>14</v>
       </c>
       <c r="C50" t="s" s="62">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D50" t="s" s="39">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E50" s="47">
         <v>20</v>
@@ -8672,10 +8635,10 @@
         <v>270</v>
       </c>
       <c r="I50" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J50" t="s" s="29">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K50" t="b" s="47">
         <v>0</v>
@@ -8700,38 +8663,38 @@
         <v>0</v>
       </c>
       <c r="Y50" t="s" s="39">
-        <v>563</v>
-      </c>
-      <c r="Z50" s="108">
+        <v>565</v>
+      </c>
+      <c r="Z50" s="107">
         <v>200</v>
       </c>
-      <c r="AA50" s="108">
+      <c r="AA50" s="107">
         <v>1</v>
       </c>
-      <c r="AB50" s="119"/>
-      <c r="AC50" t="b" s="108">
+      <c r="AB50" s="118"/>
+      <c r="AC50" t="b" s="107">
         <v>0</v>
       </c>
-      <c r="AD50" s="119"/>
-      <c r="AE50" s="119"/>
-      <c r="AF50" s="119"/>
-      <c r="AG50" s="119"/>
-      <c r="AH50" s="119"/>
-      <c r="AI50" s="119"/>
-      <c r="AJ50" s="119"/>
+      <c r="AD50" s="118"/>
+      <c r="AE50" s="118"/>
+      <c r="AF50" s="118"/>
+      <c r="AG50" s="118"/>
+      <c r="AH50" s="118"/>
+      <c r="AI50" s="118"/>
+      <c r="AJ50" s="118"/>
     </row>
     <row r="51" ht="254.7" customHeight="1">
-      <c r="A51" t="s" s="106">
-        <v>564</v>
-      </c>
-      <c r="B51" t="s" s="141">
+      <c r="A51" t="s" s="105">
+        <v>566</v>
+      </c>
+      <c r="B51" t="s" s="133">
         <v>5</v>
       </c>
       <c r="C51" t="s" s="62">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D51" t="s" s="31">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E51" s="47">
         <v>202</v>
@@ -8746,25 +8709,25 @@
         <v>270</v>
       </c>
       <c r="I51" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J51" t="s" s="29">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K51" t="b" s="47">
         <v>1</v>
       </c>
       <c r="L51" t="s" s="29">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M51" t="s" s="29">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N51" t="s" s="29">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O51" t="s" s="29">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P51" s="47">
         <v>5</v>
@@ -8780,7 +8743,7 @@
         <v>1</v>
       </c>
       <c r="U51" t="s" s="29">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="V51" s="47">
         <v>5</v>
@@ -8809,17 +8772,17 @@
       <c r="AJ51" s="41"/>
     </row>
     <row r="52" ht="254.7" customHeight="1">
-      <c r="A52" t="s" s="106">
-        <v>567</v>
+      <c r="A52" t="s" s="105">
+        <v>569</v>
       </c>
       <c r="B52" t="s" s="27">
         <v>11</v>
       </c>
       <c r="C52" t="s" s="62">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D52" t="s" s="31">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E52" s="47">
         <v>201</v>
@@ -8834,25 +8797,25 @@
         <v>270</v>
       </c>
       <c r="I52" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J52" t="s" s="29">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K52" t="b" s="47">
         <v>1</v>
       </c>
       <c r="L52" t="s" s="29">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M52" t="s" s="29">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N52" t="s" s="29">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O52" t="s" s="29">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P52" s="47">
         <v>5</v>
@@ -8866,7 +8829,7 @@
       </c>
       <c r="T52" s="50"/>
       <c r="U52" t="s" s="29">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="V52" s="47">
         <v>5</v>
@@ -8895,17 +8858,17 @@
       <c r="AJ52" s="41"/>
     </row>
     <row r="53" ht="73" customHeight="1">
-      <c r="A53" t="s" s="106">
-        <v>570</v>
+      <c r="A53" t="s" s="105">
+        <v>572</v>
       </c>
       <c r="B53" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C53" t="s" s="62">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D53" t="s" s="31">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E53" s="47">
         <v>20</v>
@@ -8920,25 +8883,25 @@
         <v>270</v>
       </c>
       <c r="I53" t="s" s="29">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J53" t="s" s="29">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K53" t="b" s="47">
         <v>1</v>
       </c>
       <c r="L53" t="s" s="29">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M53" t="s" s="29">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N53" t="s" s="29">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O53" t="s" s="29">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P53" s="47">
         <v>5</v>
@@ -9000,19 +8963,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="16.3516" style="145" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="145" customWidth="1"/>
+    <col min="1" max="6" width="16.3516" style="137" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="137" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.6" customHeight="1">
-      <c r="A1" t="s" s="88">
-        <v>294</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="A1" t="s" s="138">
+        <v>575</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="2">
@@ -9028,115 +8991,115 @@
         <v>3</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" ht="44.55" customHeight="1">
-      <c r="A3" t="s" s="146">
+      <c r="A3" t="s" s="141">
+        <v>315</v>
+      </c>
+      <c r="B3" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="142">
         <v>316</v>
       </c>
-      <c r="B3" t="s" s="5">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="147">
-        <v>317</v>
-      </c>
       <c r="D3" t="s" s="7">
-        <v>321</v>
-      </c>
-      <c r="E3" s="148">
+        <v>320</v>
+      </c>
+      <c r="E3" s="143">
         <v>1</v>
       </c>
-      <c r="F3" s="128"/>
+      <c r="F3" s="144"/>
     </row>
     <row r="4" ht="58.35" customHeight="1">
-      <c r="A4" t="s" s="149">
-        <v>575</v>
+      <c r="A4" t="s" s="145">
+        <v>578</v>
       </c>
       <c r="B4" t="s" s="10">
         <v>5</v>
       </c>
-      <c r="C4" t="s" s="150">
-        <v>576</v>
+      <c r="C4" t="s" s="146">
+        <v>579</v>
       </c>
       <c r="D4" t="s" s="7">
-        <v>321</v>
-      </c>
-      <c r="E4" s="93">
+        <v>320</v>
+      </c>
+      <c r="E4" s="89">
         <v>1</v>
       </c>
-      <c r="F4" s="131"/>
+      <c r="F4" s="147"/>
     </row>
     <row r="5" ht="58.35" customHeight="1">
-      <c r="A5" t="s" s="149">
-        <v>577</v>
+      <c r="A5" t="s" s="145">
+        <v>580</v>
       </c>
       <c r="B5" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="150">
-        <v>323</v>
+      <c r="C5" t="s" s="146">
+        <v>322</v>
       </c>
       <c r="D5" t="s" s="7">
-        <v>321</v>
-      </c>
-      <c r="E5" s="93">
+        <v>320</v>
+      </c>
+      <c r="E5" s="89">
         <v>1</v>
       </c>
-      <c r="F5" s="131"/>
+      <c r="F5" s="147"/>
     </row>
     <row r="6" ht="72.35" customHeight="1">
-      <c r="A6" t="s" s="149">
-        <v>578</v>
+      <c r="A6" t="s" s="145">
+        <v>581</v>
       </c>
       <c r="B6" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="C6" t="s" s="150">
+      <c r="C6" t="s" s="146">
+        <v>324</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>320</v>
+      </c>
+      <c r="E6" s="89">
+        <v>1</v>
+      </c>
+      <c r="F6" s="147"/>
+    </row>
+    <row r="7" ht="44.35" customHeight="1">
+      <c r="A7" t="s" s="145">
         <v>325</v>
-      </c>
-      <c r="D6" t="s" s="12">
-        <v>321</v>
-      </c>
-      <c r="E6" s="93">
-        <v>1</v>
-      </c>
-      <c r="F6" s="131"/>
-    </row>
-    <row r="7" ht="44.35" customHeight="1">
-      <c r="A7" t="s" s="149">
-        <v>326</v>
       </c>
       <c r="B7" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="C7" t="s" s="150">
-        <v>327</v>
-      </c>
-      <c r="D7" s="151"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
+      <c r="C7" t="s" s="146">
+        <v>326</v>
+      </c>
+      <c r="D7" s="148"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
     </row>
     <row r="8" ht="58.35" customHeight="1">
-      <c r="A8" t="s" s="149">
+      <c r="A8" t="s" s="145">
+        <v>328</v>
+      </c>
+      <c r="B8" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s" s="146">
         <v>329</v>
       </c>
-      <c r="B8" t="s" s="10">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s" s="150">
-        <v>330</v>
-      </c>
       <c r="D8" t="s" s="7">
-        <v>321</v>
-      </c>
-      <c r="E8" s="93">
+        <v>320</v>
+      </c>
+      <c r="E8" s="89">
         <v>1</v>
       </c>
-      <c r="F8" s="131"/>
+      <c r="F8" s="147"/>
     </row>
     <row r="9" ht="14.7" customHeight="1">
       <c r="A9" s="13"/>
@@ -9177,322 +9140,322 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="17" width="16.3516" style="152" customWidth="1"/>
-    <col min="18" max="256" width="16.3516" style="152" customWidth="1"/>
+    <col min="1" max="17" width="16.3516" style="149" customWidth="1"/>
+    <col min="18" max="256" width="16.3516" style="149" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="153">
+      <c r="A1" t="s" s="150">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="153">
+      <c r="B1" t="s" s="150">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="153">
+      <c r="C1" t="s" s="150">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="154">
-        <v>579</v>
-      </c>
-      <c r="E1" t="s" s="154">
-        <v>580</v>
-      </c>
-      <c r="F1" t="s" s="154">
-        <v>581</v>
-      </c>
-      <c r="G1" t="s" s="154">
+      <c r="D1" t="s" s="151">
         <v>582</v>
       </c>
-      <c r="H1" t="s" s="154">
+      <c r="E1" t="s" s="151">
         <v>583</v>
       </c>
-      <c r="I1" t="s" s="154">
+      <c r="F1" t="s" s="151">
         <v>584</v>
       </c>
-      <c r="J1" t="s" s="154">
+      <c r="G1" t="s" s="151">
         <v>585</v>
       </c>
-      <c r="K1" t="s" s="154">
+      <c r="H1" t="s" s="151">
         <v>586</v>
       </c>
-      <c r="L1" t="s" s="154">
+      <c r="I1" t="s" s="151">
         <v>587</v>
       </c>
-      <c r="M1" t="s" s="154">
+      <c r="J1" t="s" s="151">
         <v>588</v>
       </c>
-      <c r="N1" t="s" s="154">
+      <c r="K1" t="s" s="151">
         <v>589</v>
       </c>
-      <c r="O1" t="s" s="154">
+      <c r="L1" t="s" s="151">
         <v>590</v>
       </c>
-      <c r="P1" t="s" s="154">
+      <c r="M1" t="s" s="151">
         <v>591</v>
       </c>
-      <c r="Q1" t="s" s="154">
+      <c r="N1" t="s" s="151">
         <v>592</v>
       </c>
+      <c r="O1" t="s" s="151">
+        <v>593</v>
+      </c>
+      <c r="P1" t="s" s="151">
+        <v>594</v>
+      </c>
+      <c r="Q1" t="s" s="151">
+        <v>595</v>
+      </c>
     </row>
     <row r="2" ht="87" customHeight="1">
-      <c r="A2" t="s" s="155">
+      <c r="A2" t="s" s="152">
+        <v>421</v>
+      </c>
+      <c r="B2" t="s" s="153">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="152">
+        <v>420</v>
+      </c>
+      <c r="D2" s="154">
+        <v>9999</v>
+      </c>
+      <c r="E2" s="154">
+        <v>9999</v>
+      </c>
+      <c r="F2" s="154">
+        <v>9999</v>
+      </c>
+      <c r="G2" s="155"/>
+      <c r="H2" s="153"/>
+      <c r="I2" t="s" s="153">
+        <v>587</v>
+      </c>
+      <c r="J2" t="s" s="153">
+        <v>588</v>
+      </c>
+      <c r="K2" t="s" s="153">
+        <v>589</v>
+      </c>
+      <c r="L2" t="s" s="153">
+        <v>590</v>
+      </c>
+      <c r="M2" s="154">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s" s="156">
+        <v>596</v>
+      </c>
+      <c r="O2" s="154">
+        <v>999</v>
+      </c>
+      <c r="P2" s="154">
+        <v>99</v>
+      </c>
+      <c r="Q2" t="s" s="153">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="3" ht="73" customHeight="1">
+      <c r="A3" t="s" s="152">
         <v>419</v>
       </c>
-      <c r="B2" t="s" s="156">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="155">
-        <v>418</v>
-      </c>
-      <c r="D2" s="157">
+      <c r="B3" t="s" s="153">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="152">
+        <v>420</v>
+      </c>
+      <c r="D3" s="154">
         <v>9999</v>
       </c>
-      <c r="E2" s="157">
+      <c r="E3" s="154">
         <v>9999</v>
       </c>
-      <c r="F2" s="157">
+      <c r="F3" s="154">
         <v>9999</v>
       </c>
-      <c r="G2" s="158"/>
-      <c r="H2" s="156"/>
-      <c r="I2" t="s" s="156">
-        <v>584</v>
-      </c>
-      <c r="J2" t="s" s="156">
-        <v>585</v>
-      </c>
-      <c r="K2" t="s" s="156">
-        <v>586</v>
-      </c>
-      <c r="L2" t="s" s="156">
+      <c r="G3" t="s" s="153">
+        <v>598</v>
+      </c>
+      <c r="H3" t="s" s="153">
+        <v>599</v>
+      </c>
+      <c r="I3" t="s" s="153">
         <v>587</v>
       </c>
-      <c r="M2" s="157">
+      <c r="J3" t="s" s="153">
+        <v>588</v>
+      </c>
+      <c r="K3" t="s" s="153">
+        <v>589</v>
+      </c>
+      <c r="L3" t="s" s="153">
+        <v>590</v>
+      </c>
+      <c r="M3" s="154">
         <v>20</v>
       </c>
-      <c r="N2" t="s" s="159">
-        <v>593</v>
-      </c>
-      <c r="O2" s="157">
+      <c r="N3" t="s" s="156">
+        <v>596</v>
+      </c>
+      <c r="O3" s="154">
         <v>999</v>
       </c>
-      <c r="P2" s="157">
+      <c r="P3" s="154">
         <v>99</v>
       </c>
-      <c r="Q2" t="s" s="156">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="3" ht="73" customHeight="1">
-      <c r="A3" t="s" s="155">
-        <v>417</v>
-      </c>
-      <c r="B3" t="s" s="156">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="155">
-        <v>418</v>
-      </c>
-      <c r="D3" s="157">
+      <c r="Q3" t="s" s="153">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" ht="73" customHeight="1">
+      <c r="A4" t="s" s="152">
+        <v>600</v>
+      </c>
+      <c r="B4" t="s" s="153">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s" s="152">
+        <v>601</v>
+      </c>
+      <c r="D4" s="154">
+        <v>9999999</v>
+      </c>
+      <c r="E4" s="154">
+        <v>9999999</v>
+      </c>
+      <c r="F4" s="154">
+        <v>99999</v>
+      </c>
+      <c r="G4" t="s" s="153">
+        <v>598</v>
+      </c>
+      <c r="H4" t="s" s="153">
+        <v>599</v>
+      </c>
+      <c r="I4" t="s" s="153">
+        <v>587</v>
+      </c>
+      <c r="J4" t="s" s="153">
+        <v>588</v>
+      </c>
+      <c r="K4" t="s" s="153">
+        <v>589</v>
+      </c>
+      <c r="L4" t="s" s="153">
+        <v>590</v>
+      </c>
+      <c r="M4" s="154">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s" s="156">
+        <v>596</v>
+      </c>
+      <c r="O4" s="154">
         <v>9999</v>
       </c>
-      <c r="E3" s="157">
+      <c r="P4" s="154">
+        <v>100</v>
+      </c>
+      <c r="Q4" t="s" s="153">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="5" ht="290.7" customHeight="1">
+      <c r="A5" t="s" s="152">
+        <v>602</v>
+      </c>
+      <c r="B5" t="s" s="153">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="152">
+        <v>603</v>
+      </c>
+      <c r="D5" s="154">
         <v>9999</v>
       </c>
-      <c r="F3" s="157">
+      <c r="E5" s="154">
         <v>9999</v>
       </c>
-      <c r="G3" t="s" s="156">
-        <v>595</v>
-      </c>
-      <c r="H3" t="s" s="156">
+      <c r="F5" s="154">
+        <v>9999</v>
+      </c>
+      <c r="G5" t="s" s="153">
+        <v>604</v>
+      </c>
+      <c r="H5" t="s" s="153">
+        <v>605</v>
+      </c>
+      <c r="I5" t="s" s="153">
+        <v>606</v>
+      </c>
+      <c r="J5" t="s" s="153">
+        <v>607</v>
+      </c>
+      <c r="K5" t="s" s="153">
+        <v>606</v>
+      </c>
+      <c r="L5" t="s" s="153">
+        <v>607</v>
+      </c>
+      <c r="M5" s="154">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s" s="156">
         <v>596</v>
       </c>
-      <c r="I3" t="s" s="156">
-        <v>584</v>
-      </c>
-      <c r="J3" t="s" s="156">
-        <v>585</v>
-      </c>
-      <c r="K3" t="s" s="156">
-        <v>586</v>
-      </c>
-      <c r="L3" t="s" s="156">
+      <c r="O5" s="154">
+        <v>999</v>
+      </c>
+      <c r="P5" s="154">
+        <v>99</v>
+      </c>
+      <c r="Q5" t="s" s="153">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="6" ht="174.75" customHeight="1">
+      <c r="A6" t="s" s="152">
+        <v>609</v>
+      </c>
+      <c r="B6" t="s" s="153">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="152">
+        <v>610</v>
+      </c>
+      <c r="D6" s="154">
+        <v>999</v>
+      </c>
+      <c r="E6" s="154">
+        <v>999</v>
+      </c>
+      <c r="F6" s="154">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s" s="153">
+        <v>598</v>
+      </c>
+      <c r="H6" t="s" s="153">
+        <v>599</v>
+      </c>
+      <c r="I6" t="s" s="153">
         <v>587</v>
       </c>
-      <c r="M3" s="157">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s" s="159">
-        <v>593</v>
-      </c>
-      <c r="O3" s="157">
-        <v>999</v>
-      </c>
-      <c r="P3" s="157">
+      <c r="J6" t="s" s="153">
+        <v>588</v>
+      </c>
+      <c r="K6" t="s" s="153">
+        <v>587</v>
+      </c>
+      <c r="L6" t="s" s="153">
+        <v>588</v>
+      </c>
+      <c r="M6" s="154">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s" s="156">
+        <v>596</v>
+      </c>
+      <c r="O6" s="154">
         <v>99</v>
       </c>
-      <c r="Q3" t="s" s="156">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="4" ht="73" customHeight="1">
-      <c r="A4" t="s" s="155">
+      <c r="P6" s="154">
+        <v>99</v>
+      </c>
+      <c r="Q6" t="s" s="153">
         <v>597</v>
-      </c>
-      <c r="B4" t="s" s="156">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s" s="155">
-        <v>598</v>
-      </c>
-      <c r="D4" s="157">
-        <v>9999999</v>
-      </c>
-      <c r="E4" s="157">
-        <v>9999999</v>
-      </c>
-      <c r="F4" s="157">
-        <v>99999</v>
-      </c>
-      <c r="G4" t="s" s="156">
-        <v>595</v>
-      </c>
-      <c r="H4" t="s" s="156">
-        <v>596</v>
-      </c>
-      <c r="I4" t="s" s="156">
-        <v>584</v>
-      </c>
-      <c r="J4" t="s" s="156">
-        <v>585</v>
-      </c>
-      <c r="K4" t="s" s="156">
-        <v>586</v>
-      </c>
-      <c r="L4" t="s" s="156">
-        <v>587</v>
-      </c>
-      <c r="M4" s="157">
-        <v>11</v>
-      </c>
-      <c r="N4" t="s" s="159">
-        <v>593</v>
-      </c>
-      <c r="O4" s="157">
-        <v>9999</v>
-      </c>
-      <c r="P4" s="157">
-        <v>100</v>
-      </c>
-      <c r="Q4" t="s" s="156">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="5" ht="290.7" customHeight="1">
-      <c r="A5" t="s" s="155">
-        <v>599</v>
-      </c>
-      <c r="B5" t="s" s="156">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s" s="155">
-        <v>600</v>
-      </c>
-      <c r="D5" s="157">
-        <v>9999</v>
-      </c>
-      <c r="E5" s="157">
-        <v>9999</v>
-      </c>
-      <c r="F5" s="157">
-        <v>9999</v>
-      </c>
-      <c r="G5" t="s" s="156">
-        <v>601</v>
-      </c>
-      <c r="H5" t="s" s="156">
-        <v>602</v>
-      </c>
-      <c r="I5" t="s" s="156">
-        <v>603</v>
-      </c>
-      <c r="J5" t="s" s="156">
-        <v>604</v>
-      </c>
-      <c r="K5" t="s" s="156">
-        <v>603</v>
-      </c>
-      <c r="L5" t="s" s="156">
-        <v>604</v>
-      </c>
-      <c r="M5" s="157">
-        <v>20</v>
-      </c>
-      <c r="N5" t="s" s="159">
-        <v>593</v>
-      </c>
-      <c r="O5" s="157">
-        <v>999</v>
-      </c>
-      <c r="P5" s="157">
-        <v>99</v>
-      </c>
-      <c r="Q5" t="s" s="156">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="6" ht="174.75" customHeight="1">
-      <c r="A6" t="s" s="155">
-        <v>606</v>
-      </c>
-      <c r="B6" t="s" s="156">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s" s="155">
-        <v>607</v>
-      </c>
-      <c r="D6" s="157">
-        <v>999</v>
-      </c>
-      <c r="E6" s="157">
-        <v>999</v>
-      </c>
-      <c r="F6" s="157">
-        <v>99</v>
-      </c>
-      <c r="G6" t="s" s="156">
-        <v>595</v>
-      </c>
-      <c r="H6" t="s" s="156">
-        <v>596</v>
-      </c>
-      <c r="I6" t="s" s="156">
-        <v>584</v>
-      </c>
-      <c r="J6" t="s" s="156">
-        <v>585</v>
-      </c>
-      <c r="K6" t="s" s="156">
-        <v>584</v>
-      </c>
-      <c r="L6" t="s" s="156">
-        <v>585</v>
-      </c>
-      <c r="M6" s="157">
-        <v>14</v>
-      </c>
-      <c r="N6" t="s" s="159">
-        <v>593</v>
-      </c>
-      <c r="O6" s="157">
-        <v>99</v>
-      </c>
-      <c r="P6" s="157">
-        <v>99</v>
-      </c>
-      <c r="Q6" t="s" s="156">
-        <v>594</v>
       </c>
     </row>
     <row r="7" ht="14.7" customHeight="1">
@@ -13330,146 +13293,141 @@
     <col min="6" max="256" width="16.3516" style="87" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.6" customHeight="1">
-      <c r="A1" t="s" s="88">
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="59" customHeight="1">
+      <c r="A2" t="s" s="4">
         <v>294</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="91"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>3</v>
+      <c r="B2" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="88">
+        <v>295</v>
+      </c>
+      <c r="D2" t="s" s="7">
+        <v>296</v>
       </c>
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="59" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>295</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="92">
+      <c r="A3" t="s" s="9">
+        <v>297</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="49">
+        <v>298</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>296</v>
       </c>
-      <c r="D3" t="s" s="7">
-        <v>297</v>
-      </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" ht="59" customHeight="1">
+    <row r="4" ht="58.35" customHeight="1">
       <c r="A4" t="s" s="9">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s" s="10">
         <v>11</v>
       </c>
       <c r="C4" t="s" s="49">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D4" t="s" s="7">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" ht="58.35" customHeight="1">
+    <row r="5" ht="73" customHeight="1">
       <c r="A5" t="s" s="9">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s" s="49">
+        <v>303</v>
+      </c>
+      <c r="D5" t="s" s="12">
+        <v>296</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="59" customHeight="1">
+      <c r="A6" t="s" s="9">
+        <v>304</v>
+      </c>
+      <c r="B6" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="49">
-        <v>301</v>
-      </c>
-      <c r="D5" t="s" s="7">
-        <v>302</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="73" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>303</v>
-      </c>
-      <c r="B6" t="s" s="10">
+      <c r="C6" t="s" s="11">
+        <v>305</v>
+      </c>
+      <c r="D6" s="89">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="44.35" customHeight="1">
+      <c r="A7" t="s" s="9">
+        <v>306</v>
+      </c>
+      <c r="B7" t="s" s="10">
         <v>70</v>
       </c>
-      <c r="C6" t="s" s="49">
-        <v>304</v>
-      </c>
-      <c r="D6" t="s" s="12">
-        <v>297</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="59" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>305</v>
-      </c>
-      <c r="B7" t="s" s="10">
+      <c r="C7" t="s" s="49">
+        <v>307</v>
+      </c>
+      <c r="D7" t="s" s="90">
+        <v>308</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" ht="73" customHeight="1">
+      <c r="A8" t="s" s="9">
+        <v>309</v>
+      </c>
+      <c r="B8" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="C7" t="s" s="11">
-        <v>306</v>
-      </c>
-      <c r="D7" s="93">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="44.35" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>307</v>
-      </c>
-      <c r="B8" t="s" s="10">
-        <v>70</v>
-      </c>
       <c r="C8" t="s" s="49">
-        <v>308</v>
-      </c>
-      <c r="D8" t="s" s="94">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="D8" t="s" s="91">
+        <v>311</v>
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" ht="73" customHeight="1">
-      <c r="A9" t="s" s="9">
-        <v>310</v>
-      </c>
-      <c r="B9" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s" s="49">
-        <v>311</v>
-      </c>
-      <c r="D9" t="s" s="95">
-        <v>312</v>
-      </c>
-      <c r="E9" s="8"/>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="92"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="96"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="20"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -13489,13 +13447,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="99" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="99" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="98" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="98" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="100">
-        <v>313</v>
+      <c r="A1" t="s" s="99">
+        <v>312</v>
       </c>
       <c r="B1" s="77"/>
       <c r="C1" s="77"/>
@@ -13503,10 +13461,10 @@
       <c r="E1" s="77"/>
     </row>
     <row r="2" ht="26.25" customHeight="1">
-      <c r="A2" t="s" s="101">
-        <v>314</v>
-      </c>
-      <c r="B2" s="102"/>
+      <c r="A2" t="s" s="100">
+        <v>313</v>
+      </c>
+      <c r="B2" s="101"/>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
       <c r="E2" s="78"/>
@@ -13587,8 +13545,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="103" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="103" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="102" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="102" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
@@ -13602,97 +13560,97 @@
         <v>269</v>
       </c>
       <c r="D1" t="s" s="58">
+        <v>314</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="45" customHeight="1">
+      <c r="A2" t="s" s="103">
         <v>315</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="45" customHeight="1">
-      <c r="A2" t="s" s="104">
-        <v>316</v>
       </c>
       <c r="B2" t="s" s="60">
         <v>70</v>
       </c>
-      <c r="C2" t="s" s="105">
+      <c r="C2" t="s" s="104">
+        <v>316</v>
+      </c>
+      <c r="D2" t="s" s="39">
         <v>317</v>
       </c>
-      <c r="D2" t="s" s="39">
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="44.65" customHeight="1">
+      <c r="A3" t="s" s="105">
         <v>318</v>
-      </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="44.65" customHeight="1">
-      <c r="A3" t="s" s="106">
-        <v>319</v>
       </c>
       <c r="B3" t="s" s="27">
         <v>70</v>
       </c>
       <c r="C3" t="s" s="62">
+        <v>319</v>
+      </c>
+      <c r="D3" t="s" s="31">
         <v>320</v>
       </c>
-      <c r="D3" t="s" s="31">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" ht="58.35" customHeight="1">
+      <c r="A4" t="s" s="105">
         <v>321</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="58.35" customHeight="1">
-      <c r="A4" t="s" s="106">
-        <v>322</v>
       </c>
       <c r="B4" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C4" t="s" s="62">
+        <v>322</v>
+      </c>
+      <c r="D4" t="s" s="31">
+        <v>320</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" ht="72.65" customHeight="1">
+      <c r="A5" t="s" s="105">
         <v>323</v>
-      </c>
-      <c r="D4" t="s" s="31">
-        <v>321</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="72.65" customHeight="1">
-      <c r="A5" t="s" s="106">
-        <v>324</v>
       </c>
       <c r="B5" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C5" t="s" s="62">
+        <v>324</v>
+      </c>
+      <c r="D5" t="s" s="31">
+        <v>320</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="45" customHeight="1">
+      <c r="A6" t="s" s="105">
         <v>325</v>
-      </c>
-      <c r="D5" t="s" s="31">
-        <v>321</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="45" customHeight="1">
-      <c r="A6" t="s" s="106">
-        <v>326</v>
       </c>
       <c r="B6" t="s" s="27">
         <v>14</v>
       </c>
       <c r="C6" t="s" s="62">
+        <v>326</v>
+      </c>
+      <c r="D6" t="s" s="31">
         <v>327</v>
       </c>
-      <c r="D6" t="s" s="31">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="66.5" customHeight="1">
+      <c r="A7" t="s" s="105">
         <v>328</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="66.5" customHeight="1">
-      <c r="A7" t="s" s="106">
-        <v>329</v>
       </c>
       <c r="B7" t="s" s="27">
         <v>70</v>
       </c>
       <c r="C7" t="s" s="62">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D7" t="s" s="31">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -13737,13 +13695,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="27.6719" style="107" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="107" customWidth="1"/>
-    <col min="3" max="3" width="28.3516" style="107" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="107" customWidth="1"/>
-    <col min="5" max="5" width="20.3516" style="107" customWidth="1"/>
-    <col min="6" max="8" width="18.5" style="107" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="107" customWidth="1"/>
+    <col min="1" max="1" width="27.6719" style="106" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="106" customWidth="1"/>
+    <col min="3" max="3" width="28.3516" style="106" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="106" customWidth="1"/>
+    <col min="5" max="5" width="20.3516" style="106" customWidth="1"/>
+    <col min="6" max="8" width="18.5" style="106" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="106" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.35" customHeight="1">
@@ -13757,41 +13715,41 @@
         <v>269</v>
       </c>
       <c r="D1" t="s" s="24">
+        <v>330</v>
+      </c>
+      <c r="E1" t="s" s="24">
         <v>331</v>
       </c>
-      <c r="E1" t="s" s="24">
+      <c r="F1" t="s" s="58">
         <v>332</v>
       </c>
-      <c r="F1" t="s" s="58">
+      <c r="G1" t="s" s="23">
         <v>333</v>
       </c>
-      <c r="G1" t="s" s="23">
+      <c r="H1" t="s" s="24">
         <v>334</v>
       </c>
-      <c r="H1" t="s" s="24">
+    </row>
+    <row r="2" ht="55.05" customHeight="1">
+      <c r="A2" t="s" s="103">
         <v>335</v>
-      </c>
-    </row>
-    <row r="2" ht="55.05" customHeight="1">
-      <c r="A2" t="s" s="104">
-        <v>336</v>
       </c>
       <c r="B2" t="s" s="60">
         <v>70</v>
       </c>
-      <c r="C2" t="s" s="105">
+      <c r="C2" t="s" s="104">
+        <v>336</v>
+      </c>
+      <c r="D2" t="s" s="62">
         <v>337</v>
-      </c>
-      <c r="D2" t="s" s="62">
-        <v>338</v>
       </c>
       <c r="E2" s="40">
         <v>10</v>
       </c>
-      <c r="F2" s="108">
+      <c r="F2" s="107">
         <v>7</v>
       </c>
-      <c r="G2" s="108">
+      <c r="G2" s="107">
         <v>7</v>
       </c>
       <c r="H2" s="40">
@@ -13799,17 +13757,17 @@
       </c>
     </row>
     <row r="3" ht="51.85" customHeight="1">
-      <c r="A3" t="s" s="109">
+      <c r="A3" t="s" s="108">
+        <v>338</v>
+      </c>
+      <c r="B3" t="s" s="109">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="110">
         <v>339</v>
       </c>
-      <c r="B3" t="s" s="110">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s" s="111">
-        <v>340</v>
-      </c>
       <c r="D3" t="s" s="62">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E3" s="40">
         <v>10</v>
@@ -13825,17 +13783,17 @@
       </c>
     </row>
     <row r="4" ht="59.35" customHeight="1">
-      <c r="A4" t="s" s="109">
+      <c r="A4" t="s" s="108">
+        <v>340</v>
+      </c>
+      <c r="B4" t="s" s="109">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="110">
         <v>341</v>
       </c>
-      <c r="B4" t="s" s="110">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s" s="111">
-        <v>342</v>
-      </c>
       <c r="D4" t="s" s="62">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E4" s="40">
         <v>10</v>
@@ -13851,17 +13809,17 @@
       </c>
     </row>
     <row r="5" ht="55.25" customHeight="1">
-      <c r="A5" t="s" s="109">
+      <c r="A5" t="s" s="108">
+        <v>342</v>
+      </c>
+      <c r="B5" t="s" s="109">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="110">
         <v>343</v>
       </c>
-      <c r="B5" t="s" s="110">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s" s="111">
+      <c r="D5" t="s" s="62">
         <v>344</v>
-      </c>
-      <c r="D5" t="s" s="62">
-        <v>345</v>
       </c>
       <c r="E5" s="40">
         <v>10</v>
@@ -13877,20 +13835,20 @@
       </c>
     </row>
     <row r="6" ht="44.35" customHeight="1">
-      <c r="A6" t="s" s="109">
+      <c r="A6" t="s" s="108">
+        <v>345</v>
+      </c>
+      <c r="B6" t="s" s="109">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="110">
         <v>346</v>
       </c>
-      <c r="B6" t="s" s="110">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s" s="111">
+      <c r="D6" t="s" s="62">
+        <v>337</v>
+      </c>
+      <c r="E6" t="s" s="31">
         <v>347</v>
-      </c>
-      <c r="D6" t="s" s="62">
-        <v>338</v>
-      </c>
-      <c r="E6" t="s" s="31">
-        <v>348</v>
       </c>
       <c r="F6" s="40">
         <v>7</v>
@@ -13903,17 +13861,17 @@
       </c>
     </row>
     <row r="7" ht="44.8" customHeight="1">
-      <c r="A7" t="s" s="109">
+      <c r="A7" t="s" s="108">
+        <v>348</v>
+      </c>
+      <c r="B7" t="s" s="109">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s" s="110">
         <v>349</v>
       </c>
-      <c r="B7" t="s" s="110">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s" s="111">
-        <v>350</v>
-      </c>
       <c r="D7" t="s" s="62">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E7" s="40">
         <v>10</v>
@@ -13929,17 +13887,17 @@
       </c>
     </row>
     <row r="8" ht="75.85" customHeight="1">
-      <c r="A8" t="s" s="109">
+      <c r="A8" t="s" s="108">
+        <v>350</v>
+      </c>
+      <c r="B8" t="s" s="109">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s" s="110">
         <v>351</v>
       </c>
-      <c r="B8" t="s" s="110">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s" s="111">
-        <v>352</v>
-      </c>
       <c r="D8" t="s" s="62">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E8" s="40">
         <v>10</v>
@@ -13951,21 +13909,21 @@
         <v>7</v>
       </c>
       <c r="H8" t="s" s="31">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" ht="75.85" customHeight="1">
+      <c r="A9" t="s" s="108">
         <v>353</v>
       </c>
-    </row>
-    <row r="9" ht="75.85" customHeight="1">
-      <c r="A9" t="s" s="109">
+      <c r="B9" t="s" s="111">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s" s="110">
         <v>354</v>
       </c>
-      <c r="B9" t="s" s="112">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s" s="111">
+      <c r="D9" t="s" s="62">
         <v>355</v>
-      </c>
-      <c r="D9" t="s" s="62">
-        <v>356</v>
       </c>
       <c r="E9" s="40">
         <v>100</v>
@@ -13981,14 +13939,14 @@
       </c>
     </row>
     <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="113"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="115"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
